--- a/xlsx/Calificación df.xlsx
+++ b/xlsx/Calificación df.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alonso/Desktop/Metodología/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alonso/Documents/projects-code/PracticeSciencemx/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB4723A-96D1-6B41-8A1E-F2795D81F3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7D0A5E-7B50-1044-BF6B-766C4EFD0B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{1523D235-BBB6-D647-8552-84A49899B5CB}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/xlsx/Calificación df.xlsx
+++ b/xlsx/Calificación df.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alonso/Documents/projects-code/PracticeSciencemx/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7D0A5E-7B50-1044-BF6B-766C4EFD0B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8A434C-6BC1-4F49-9E61-C9EC12404E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{1523D235-BBB6-D647-8552-84A49899B5CB}"/>
   </bookViews>
@@ -84,10 +84,10 @@
     <t>Pensamiento crítico</t>
   </si>
   <si>
-    <t>Examenes diarios</t>
-  </si>
-  <si>
     <t>Examen final</t>
+  </si>
+  <si>
+    <t>Miniexámenes</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,7 +594,7 @@
     </row>
     <row r="5" spans="1:2" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="6" spans="1:2" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
